--- a/data/pca/factorExposure/factorExposure_2016-10-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01436345715269652</v>
+        <v>0.01216313067756377</v>
       </c>
       <c r="C2">
-        <v>-0.04683089993129085</v>
+        <v>0.03978159396470747</v>
       </c>
       <c r="D2">
-        <v>0.03344854380287957</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06107596099484321</v>
+      </c>
+      <c r="E2">
+        <v>0.0490802877647774</v>
+      </c>
+      <c r="F2">
+        <v>-0.08602531684404294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.0554244133497166</v>
+        <v>0.03256503087233292</v>
       </c>
       <c r="C3">
-        <v>-0.09620821935888606</v>
+        <v>0.08214678212016278</v>
       </c>
       <c r="D3">
-        <v>0.05908934049538146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09919794831517473</v>
+      </c>
+      <c r="E3">
+        <v>0.07314917419124974</v>
+      </c>
+      <c r="F3">
+        <v>-0.0300959347784972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06304004107952971</v>
+        <v>0.05533604874572583</v>
       </c>
       <c r="C4">
-        <v>-0.05991274311071787</v>
+        <v>0.06287844976274391</v>
       </c>
       <c r="D4">
-        <v>0.02474260661322504</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06005093936683118</v>
+      </c>
+      <c r="E4">
+        <v>0.04498184087295699</v>
+      </c>
+      <c r="F4">
+        <v>-0.07880311879125607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.02907238415324376</v>
+        <v>0.03397740297128966</v>
       </c>
       <c r="C6">
-        <v>-0.04279062489690662</v>
+        <v>0.03513225723743283</v>
       </c>
       <c r="D6">
-        <v>0.02767696467506887</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06608379229795205</v>
+      </c>
+      <c r="E6">
+        <v>0.05821946104762006</v>
+      </c>
+      <c r="F6">
+        <v>-0.07027702416041026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.02395739691745379</v>
+        <v>0.02004035341295064</v>
       </c>
       <c r="C7">
-        <v>-0.03758735515925302</v>
+        <v>0.03581483487566724</v>
       </c>
       <c r="D7">
-        <v>-0.002637457763111351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03823180934718574</v>
+      </c>
+      <c r="E7">
+        <v>0.03249130585752606</v>
+      </c>
+      <c r="F7">
+        <v>-0.1115946029390336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001055000943364348</v>
+        <v>0.005333224585445968</v>
       </c>
       <c r="C8">
-        <v>-0.01183492546908156</v>
+        <v>0.01971563137497606</v>
       </c>
       <c r="D8">
-        <v>0.0143742821409682</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03454669521836239</v>
+      </c>
+      <c r="E8">
+        <v>0.03553992291258388</v>
+      </c>
+      <c r="F8">
+        <v>-0.05589089291120686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02822809267268192</v>
+        <v>0.03468636966241995</v>
       </c>
       <c r="C9">
-        <v>-0.04113034834491347</v>
+        <v>0.04904051914550175</v>
       </c>
       <c r="D9">
-        <v>0.01816254836556988</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04418151669737757</v>
+      </c>
+      <c r="E9">
+        <v>0.03716263680078864</v>
+      </c>
+      <c r="F9">
+        <v>-0.08722005142222257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07804966396894465</v>
+        <v>0.102558472273162</v>
       </c>
       <c r="C10">
-        <v>0.1945955290051706</v>
+        <v>-0.1888285860312826</v>
       </c>
       <c r="D10">
-        <v>0.01050887908841388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.001751830186694209</v>
+      </c>
+      <c r="E10">
+        <v>0.04147316100471018</v>
+      </c>
+      <c r="F10">
+        <v>-0.03930864277599633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.04109381414154018</v>
+        <v>0.03501580038676955</v>
       </c>
       <c r="C11">
-        <v>-0.05488020289466364</v>
+        <v>0.05135846752735986</v>
       </c>
       <c r="D11">
-        <v>0.0003561541815089105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03300483530008154</v>
+      </c>
+      <c r="E11">
+        <v>0.004757478124121028</v>
+      </c>
+      <c r="F11">
+        <v>-0.06580951397166561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03524537232177423</v>
+        <v>0.0355691661915342</v>
       </c>
       <c r="C12">
-        <v>-0.04415911584820335</v>
+        <v>0.04612826154216112</v>
       </c>
       <c r="D12">
-        <v>0.001622496646904652</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02552273066101427</v>
+      </c>
+      <c r="E12">
+        <v>0.01325420873202456</v>
+      </c>
+      <c r="F12">
+        <v>-0.06678315578423936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01083913946749303</v>
+        <v>0.01085893004697954</v>
       </c>
       <c r="C13">
-        <v>-0.04316973696664408</v>
+        <v>0.04104708342267623</v>
       </c>
       <c r="D13">
-        <v>0.02366313472868116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06536787263714322</v>
+      </c>
+      <c r="E13">
+        <v>0.06394086502607947</v>
+      </c>
+      <c r="F13">
+        <v>-0.1161339993306011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.007672659285063584</v>
+        <v>0.004813679583130864</v>
       </c>
       <c r="C14">
-        <v>-0.03139319200491607</v>
+        <v>0.0286521296348447</v>
       </c>
       <c r="D14">
-        <v>-0.0134062857893347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03005587754324024</v>
+      </c>
+      <c r="E14">
+        <v>0.02450213201669996</v>
+      </c>
+      <c r="F14">
+        <v>-0.09728872234862364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0014329616666932</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.001157439600369802</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.00166633745770487</v>
+      </c>
+      <c r="E15">
+        <v>-9.453212520781841e-05</v>
+      </c>
+      <c r="F15">
+        <v>-0.001005198110404767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03521786414196158</v>
+        <v>0.03227608101092388</v>
       </c>
       <c r="C16">
-        <v>-0.03887526456394041</v>
+        <v>0.0448146042702536</v>
       </c>
       <c r="D16">
-        <v>0.006143228779278811</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02808769647417645</v>
+      </c>
+      <c r="E16">
+        <v>0.01875568584605114</v>
+      </c>
+      <c r="F16">
+        <v>-0.06935593665404828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.03036768493456614</v>
+        <v>0.01662280292257549</v>
       </c>
       <c r="C19">
-        <v>-0.06008237384166427</v>
+        <v>0.05035141491398797</v>
       </c>
       <c r="D19">
-        <v>0.07208340413915734</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1044472580501757</v>
+      </c>
+      <c r="E19">
+        <v>0.08347092698798349</v>
+      </c>
+      <c r="F19">
+        <v>-0.1066286373425613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01436053908926789</v>
+        <v>0.01267588371906303</v>
       </c>
       <c r="C20">
-        <v>-0.04334333201345447</v>
+        <v>0.03998489479457674</v>
       </c>
       <c r="D20">
-        <v>0.02065871026195108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04156495962298098</v>
+      </c>
+      <c r="E20">
+        <v>0.05521642124322686</v>
+      </c>
+      <c r="F20">
+        <v>-0.09204476969983749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01026812200025728</v>
+        <v>0.005599188374856888</v>
       </c>
       <c r="C21">
-        <v>-0.04814928370042706</v>
+        <v>0.04146350509014689</v>
       </c>
       <c r="D21">
-        <v>0.04268221174886869</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07122369702747224</v>
+      </c>
+      <c r="E21">
+        <v>0.06599630436141612</v>
+      </c>
+      <c r="F21">
+        <v>-0.1324063852063317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.002391277138792861</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01555901004642466</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03028461375752536</v>
+      </c>
+      <c r="E22">
+        <v>0.01223040677500797</v>
+      </c>
+      <c r="F22">
+        <v>-0.01245498123226576</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002440812307152151</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01552755243828155</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0299743308368681</v>
+      </c>
+      <c r="E23">
+        <v>0.0124518730627041</v>
+      </c>
+      <c r="F23">
+        <v>-0.01215236066202412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02995784212220447</v>
+        <v>0.03103288061340593</v>
       </c>
       <c r="C24">
-        <v>-0.04624808274960717</v>
+        <v>0.05139115496550017</v>
       </c>
       <c r="D24">
-        <v>0.002425572016847871</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02626399062018948</v>
+      </c>
+      <c r="E24">
+        <v>0.01467114024980401</v>
+      </c>
+      <c r="F24">
+        <v>-0.0762106862363528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04661537131746945</v>
+        <v>0.04157724262203438</v>
       </c>
       <c r="C25">
-        <v>-0.05702518102571148</v>
+        <v>0.05745985390654771</v>
       </c>
       <c r="D25">
-        <v>-0.01000029511776643</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0236736075719561</v>
+      </c>
+      <c r="E25">
+        <v>0.01120791342310903</v>
+      </c>
+      <c r="F25">
+        <v>-0.0781970284075519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.0100825316811985</v>
+        <v>0.01268913143781709</v>
       </c>
       <c r="C26">
-        <v>-0.01623446531006241</v>
+        <v>0.01584583243096946</v>
       </c>
       <c r="D26">
-        <v>0.009459097748630067</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02600390879296639</v>
+      </c>
+      <c r="E26">
+        <v>0.02568905041676538</v>
+      </c>
+      <c r="F26">
+        <v>-0.0753121993340065</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.08959701987166606</v>
+        <v>0.1350477372860841</v>
       </c>
       <c r="C28">
-        <v>0.221085960316259</v>
+        <v>-0.2368137149629753</v>
       </c>
       <c r="D28">
-        <v>0.004161356162000941</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01678700498965682</v>
+      </c>
+      <c r="E28">
+        <v>0.0418919346979813</v>
+      </c>
+      <c r="F28">
+        <v>-0.05049745282831134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01250177541186319</v>
+        <v>0.006073349638476477</v>
       </c>
       <c r="C29">
-        <v>-0.02402893299500864</v>
+        <v>0.0248094382055301</v>
       </c>
       <c r="D29">
-        <v>-0.01203045160159003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02089679611509016</v>
+      </c>
+      <c r="E29">
+        <v>0.02724675761433261</v>
+      </c>
+      <c r="F29">
+        <v>-0.08667806427985372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05079629976520218</v>
+        <v>0.03771480829245771</v>
       </c>
       <c r="C30">
-        <v>-0.0652117643035791</v>
+        <v>0.0618104153593438</v>
       </c>
       <c r="D30">
-        <v>0.04353583083711506</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1040567192816496</v>
+      </c>
+      <c r="E30">
+        <v>0.03554311920331111</v>
+      </c>
+      <c r="F30">
+        <v>-0.1003198123813773</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04249931516723016</v>
+        <v>0.05302435612819728</v>
       </c>
       <c r="C31">
-        <v>-0.03131086212725356</v>
+        <v>0.04956222607005616</v>
       </c>
       <c r="D31">
-        <v>-0.01490099860053187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003491676784943078</v>
+      </c>
+      <c r="E31">
+        <v>0.04261949893243198</v>
+      </c>
+      <c r="F31">
+        <v>-0.08263353931085329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.001119364120558672</v>
+        <v>0.003077952996631773</v>
       </c>
       <c r="C32">
-        <v>-0.04783093468447688</v>
+        <v>0.03004034008623525</v>
       </c>
       <c r="D32">
-        <v>0.02848519970557248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05180559370598645</v>
+      </c>
+      <c r="E32">
+        <v>0.01952300292297973</v>
+      </c>
+      <c r="F32">
+        <v>-0.07063802807263138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02794479352889582</v>
+        <v>0.02382397780467112</v>
       </c>
       <c r="C33">
-        <v>-0.06212808069525775</v>
+        <v>0.05205962073821675</v>
       </c>
       <c r="D33">
-        <v>0.02803012896844516</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08111075138547433</v>
+      </c>
+      <c r="E33">
+        <v>0.04772004399236286</v>
+      </c>
+      <c r="F33">
+        <v>-0.129268369863637</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.05048978163463354</v>
+        <v>0.04038620183421647</v>
       </c>
       <c r="C34">
-        <v>-0.05466762637574425</v>
+        <v>0.0637078361013859</v>
       </c>
       <c r="D34">
-        <v>-0.008728093882587088</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03309659367110264</v>
+      </c>
+      <c r="E34">
+        <v>-0.004789483489764397</v>
+      </c>
+      <c r="F34">
+        <v>-0.0753973786207873</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.008868822769912743</v>
+        <v>0.01393701087706043</v>
       </c>
       <c r="C36">
-        <v>-0.01132920496239566</v>
+        <v>0.01022064233246106</v>
       </c>
       <c r="D36">
-        <v>0.007501172443831619</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02786311619746088</v>
+      </c>
+      <c r="E36">
+        <v>0.03298449882303535</v>
+      </c>
+      <c r="F36">
+        <v>-0.08407418556481036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.03228642040409286</v>
+        <v>0.02613962972928812</v>
       </c>
       <c r="C38">
-        <v>-0.02474687010012939</v>
+        <v>0.02262784845458267</v>
       </c>
       <c r="D38">
-        <v>-0.0001266667586547408</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02692257049223732</v>
+      </c>
+      <c r="E38">
+        <v>0.03473285651862303</v>
+      </c>
+      <c r="F38">
+        <v>-0.07088539160996139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.0418507797064129</v>
+        <v>0.03660166467190377</v>
       </c>
       <c r="C39">
-        <v>-0.07058969851241687</v>
+        <v>0.06660750526592452</v>
       </c>
       <c r="D39">
-        <v>0.02554724272653866</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05139480437777643</v>
+      </c>
+      <c r="E39">
+        <v>0.01668635289708611</v>
+      </c>
+      <c r="F39">
+        <v>-0.09147552184876197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.0181574401661634</v>
+        <v>0.01592189599937779</v>
       </c>
       <c r="C40">
-        <v>-0.02788673621610331</v>
+        <v>0.03640024156485142</v>
       </c>
       <c r="D40">
-        <v>0.03641957216478858</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03936176478570663</v>
+      </c>
+      <c r="E40">
+        <v>0.07004080915899451</v>
+      </c>
+      <c r="F40">
+        <v>-0.0912082165193536</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0107872801148095</v>
+        <v>0.01825820315680603</v>
       </c>
       <c r="C41">
-        <v>-0.002872292406609855</v>
+        <v>0.003966890543988498</v>
       </c>
       <c r="D41">
-        <v>0.001041079067353898</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01758959820047371</v>
+      </c>
+      <c r="E41">
+        <v>0.03515514326814898</v>
+      </c>
+      <c r="F41">
+        <v>-0.07416904983774927</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.006130666061219537</v>
+        <v>0.003252659168468344</v>
       </c>
       <c r="C42">
-        <v>-0.01417046475139664</v>
+        <v>0.007867343167945464</v>
       </c>
       <c r="D42">
-        <v>0.006336347141827363</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.0003447616067730372</v>
+      </c>
+      <c r="E42">
+        <v>0.00347864634812812</v>
+      </c>
+      <c r="F42">
+        <v>0.01503121449814177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03202358141445991</v>
+        <v>0.02998792302551388</v>
       </c>
       <c r="C43">
-        <v>-0.01616227309420552</v>
+        <v>0.01875050489451986</v>
       </c>
       <c r="D43">
-        <v>0.008608262033429947</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04208179369094523</v>
+      </c>
+      <c r="E43">
+        <v>0.04006735935451657</v>
+      </c>
+      <c r="F43">
+        <v>-0.08885207371538591</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.01931930829117704</v>
+        <v>0.01510340995830058</v>
       </c>
       <c r="C44">
-        <v>-0.0548616607622275</v>
+        <v>0.04958141608009322</v>
       </c>
       <c r="D44">
-        <v>0.01787446542590543</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04241801198769699</v>
+      </c>
+      <c r="E44">
+        <v>0.05695790077282271</v>
+      </c>
+      <c r="F44">
+        <v>-0.0957337916468705</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0003831951190622296</v>
+        <v>0.00686972173194193</v>
       </c>
       <c r="C46">
-        <v>-0.01795863511430808</v>
+        <v>0.02249199589650174</v>
       </c>
       <c r="D46">
-        <v>-0.01369400943322895</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01426411441634088</v>
+      </c>
+      <c r="E46">
+        <v>0.03104801720618985</v>
+      </c>
+      <c r="F46">
+        <v>-0.1018083936009844</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07645141698012231</v>
+        <v>0.08492359859889381</v>
       </c>
       <c r="C47">
-        <v>-0.07212739990502039</v>
+        <v>0.07726696367122875</v>
       </c>
       <c r="D47">
-        <v>-0.01190662563737871</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01208349173199455</v>
+      </c>
+      <c r="E47">
+        <v>0.04952333322774232</v>
+      </c>
+      <c r="F47">
+        <v>-0.08033642899283501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01974546252530687</v>
+        <v>0.01533441410888358</v>
       </c>
       <c r="C48">
-        <v>-0.01049732128126878</v>
+        <v>0.01571854397379764</v>
       </c>
       <c r="D48">
-        <v>0.001577638660645106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01825433567059088</v>
+      </c>
+      <c r="E48">
+        <v>0.04239820135539801</v>
+      </c>
+      <c r="F48">
+        <v>-0.09700828793990869</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08714710104034915</v>
+        <v>0.07126648562363992</v>
       </c>
       <c r="C50">
-        <v>-0.06613648315757197</v>
+        <v>0.06838936355158735</v>
       </c>
       <c r="D50">
-        <v>-0.01810057254498332</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001534320981733298</v>
+      </c>
+      <c r="E50">
+        <v>0.04765656263248972</v>
+      </c>
+      <c r="F50">
+        <v>-0.06841287783601631</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01217281632251902</v>
+        <v>0.009343079494377281</v>
       </c>
       <c r="C51">
-        <v>-0.04768201149412152</v>
+        <v>0.03393427124299923</v>
       </c>
       <c r="D51">
-        <v>0.009659861598250257</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04871224045521515</v>
+      </c>
+      <c r="E51">
+        <v>0.01911782523954861</v>
+      </c>
+      <c r="F51">
+        <v>-0.08812057509693567</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.09274738664482933</v>
+        <v>0.09073524061821417</v>
       </c>
       <c r="C53">
-        <v>-0.0751971002450942</v>
+        <v>0.08728855167827852</v>
       </c>
       <c r="D53">
-        <v>-0.03828436764481018</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03934309868770128</v>
+      </c>
+      <c r="E53">
+        <v>0.04988843288687873</v>
+      </c>
+      <c r="F53">
+        <v>-0.08826927742562274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03011262180068626</v>
+        <v>0.028258002827366</v>
       </c>
       <c r="C54">
-        <v>-0.01507360082161772</v>
+        <v>0.02461823373627544</v>
       </c>
       <c r="D54">
-        <v>0.00875415945351027</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0353953526785745</v>
+      </c>
+      <c r="E54">
+        <v>0.03607714843068096</v>
+      </c>
+      <c r="F54">
+        <v>-0.0985062141440014</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07342417326346251</v>
+        <v>0.08194249624293526</v>
       </c>
       <c r="C55">
-        <v>-0.06977551676624115</v>
+        <v>0.07118433267707951</v>
       </c>
       <c r="D55">
-        <v>-0.03983527679078473</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04701616537533026</v>
+      </c>
+      <c r="E55">
+        <v>0.04084333025407837</v>
+      </c>
+      <c r="F55">
+        <v>-0.06268796930441478</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1483577266567793</v>
+        <v>0.1443127541332194</v>
       </c>
       <c r="C56">
-        <v>-0.09399672046250987</v>
+        <v>0.1044856474088308</v>
       </c>
       <c r="D56">
-        <v>-0.04388831151234812</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04953153845479737</v>
+      </c>
+      <c r="E56">
+        <v>0.04778244892118133</v>
+      </c>
+      <c r="F56">
+        <v>-0.05469083350243228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.004814531111613129</v>
+        <v>0.002032226057426675</v>
       </c>
       <c r="C57">
-        <v>-0.003129854245978048</v>
+        <v>0.001709537860295149</v>
       </c>
       <c r="D57">
-        <v>0.01973460404749775</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01678013857209635</v>
+      </c>
+      <c r="E57">
+        <v>0.008513367771687277</v>
+      </c>
+      <c r="F57">
+        <v>-0.01409259500059658</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07497487944703404</v>
+        <v>0.03154954917847409</v>
       </c>
       <c r="C58">
-        <v>-0.03701730554133285</v>
+        <v>0.0305669592660393</v>
       </c>
       <c r="D58">
-        <v>0.9426826722316801</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4963684161007616</v>
+      </c>
+      <c r="E58">
+        <v>0.694073031492915</v>
+      </c>
+      <c r="F58">
+        <v>0.4313545675295867</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1355330193664491</v>
+        <v>0.1496367418447159</v>
       </c>
       <c r="C59">
-        <v>0.2049181175521622</v>
+        <v>-0.1874774937985382</v>
       </c>
       <c r="D59">
-        <v>0.02113684657159729</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02931441910161371</v>
+      </c>
+      <c r="E59">
+        <v>0.02166978312816042</v>
+      </c>
+      <c r="F59">
+        <v>-0.02208157279580904</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3158640867754149</v>
+        <v>0.2815853927482515</v>
       </c>
       <c r="C60">
-        <v>-0.08439275335111762</v>
+        <v>0.1023126256600407</v>
       </c>
       <c r="D60">
-        <v>0.009633138609440076</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2097714418010097</v>
+      </c>
+      <c r="E60">
+        <v>-0.276271546479294</v>
+      </c>
+      <c r="F60">
+        <v>0.1261408402822046</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03705877612335584</v>
+        <v>0.03901222884835853</v>
       </c>
       <c r="C61">
-        <v>-0.06091967678093622</v>
+        <v>0.06065028936248926</v>
       </c>
       <c r="D61">
-        <v>0.01500306335380232</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04663692888518566</v>
+      </c>
+      <c r="E61">
+        <v>0.02213834487108124</v>
+      </c>
+      <c r="F61">
+        <v>-0.08230276918754623</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01338636738334959</v>
+        <v>0.01477873164872873</v>
       </c>
       <c r="C63">
-        <v>-0.0349163672861094</v>
+        <v>0.03105974776258237</v>
       </c>
       <c r="D63">
-        <v>-0.004214948675596079</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02137481510705916</v>
+      </c>
+      <c r="E63">
+        <v>0.03611464096839694</v>
+      </c>
+      <c r="F63">
+        <v>-0.07584956671808217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.04895794065707258</v>
+        <v>0.05363067928242954</v>
       </c>
       <c r="C64">
-        <v>-0.02779281166554053</v>
+        <v>0.05209992471588457</v>
       </c>
       <c r="D64">
-        <v>-0.003733319423657955</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01176909921917555</v>
+      </c>
+      <c r="E64">
+        <v>0.01810983411261768</v>
+      </c>
+      <c r="F64">
+        <v>-0.08741314898002013</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09477924805944594</v>
+        <v>0.06742350996547508</v>
       </c>
       <c r="C65">
-        <v>-0.04798117250443734</v>
+        <v>0.04070863217808871</v>
       </c>
       <c r="D65">
-        <v>0.03191502107907062</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08184728113138591</v>
+      </c>
+      <c r="E65">
+        <v>0.03593620519826685</v>
+      </c>
+      <c r="F65">
+        <v>-0.02611242716003944</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06484874244053312</v>
+        <v>0.04947480312680403</v>
       </c>
       <c r="C66">
-        <v>-0.1067672564923174</v>
+        <v>0.0902436462461905</v>
       </c>
       <c r="D66">
-        <v>0.03065628370017074</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07736713548596316</v>
+      </c>
+      <c r="E66">
+        <v>0.02033969930285436</v>
+      </c>
+      <c r="F66">
+        <v>-0.09233589335923985</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05631127428889622</v>
+        <v>0.04854834376702476</v>
       </c>
       <c r="C67">
-        <v>-0.03040292170479315</v>
+        <v>0.02932457873504675</v>
       </c>
       <c r="D67">
-        <v>-0.009471911208241994</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01461399773438441</v>
+      </c>
+      <c r="E67">
+        <v>0.01993663171427569</v>
+      </c>
+      <c r="F67">
+        <v>-0.05743595661946697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1173676490422658</v>
+        <v>0.1576130957525159</v>
       </c>
       <c r="C68">
-        <v>0.2888465589187248</v>
+        <v>-0.2566435526014213</v>
       </c>
       <c r="D68">
-        <v>-0.00227253095782492</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02127533187955283</v>
+      </c>
+      <c r="E68">
+        <v>0.03639111859938023</v>
+      </c>
+      <c r="F68">
+        <v>-0.01673139641179312</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08579893230631822</v>
+        <v>0.08499615505505656</v>
       </c>
       <c r="C69">
-        <v>-0.06769536998068967</v>
+        <v>0.08315325549949679</v>
       </c>
       <c r="D69">
-        <v>-0.03738455125245417</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00857072577379733</v>
+      </c>
+      <c r="E69">
+        <v>0.023242778011747</v>
+      </c>
+      <c r="F69">
+        <v>-0.0949157515759072</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1242952320318974</v>
+        <v>0.1454255374178366</v>
       </c>
       <c r="C71">
-        <v>0.245516775089867</v>
+        <v>-0.2311172768809707</v>
       </c>
       <c r="D71">
-        <v>0.01850533153142478</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01291166405172394</v>
+      </c>
+      <c r="E71">
+        <v>0.05417731796755448</v>
+      </c>
+      <c r="F71">
+        <v>-0.05489337953388699</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08258807175150705</v>
+        <v>0.09481822326577125</v>
       </c>
       <c r="C72">
-        <v>-0.04854912685159803</v>
+        <v>0.05496954228208678</v>
       </c>
       <c r="D72">
-        <v>-0.02108163051030507</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01686060960374662</v>
+      </c>
+      <c r="E72">
+        <v>0.00711089389135567</v>
+      </c>
+      <c r="F72">
+        <v>-0.07648069425665532</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4430601550617145</v>
+        <v>0.3474521687914159</v>
       </c>
       <c r="C73">
-        <v>-0.06654366827236144</v>
+        <v>0.08534995016025471</v>
       </c>
       <c r="D73">
-        <v>0.07715347664318659</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4298300759057322</v>
+      </c>
+      <c r="E73">
+        <v>-0.4781095032058701</v>
+      </c>
+      <c r="F73">
+        <v>0.3050457637737061</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1189335725755743</v>
+        <v>0.1111599902313588</v>
       </c>
       <c r="C74">
-        <v>-0.1158825746730684</v>
+        <v>0.1029105598551712</v>
       </c>
       <c r="D74">
-        <v>-0.01711673280119951</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02713403986500918</v>
+      </c>
+      <c r="E74">
+        <v>0.06699245830717017</v>
+      </c>
+      <c r="F74">
+        <v>-0.06208546297186216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2575530284653978</v>
+        <v>0.2555757078045487</v>
       </c>
       <c r="C75">
-        <v>-0.1330101230623413</v>
+        <v>0.1457593192432035</v>
       </c>
       <c r="D75">
-        <v>-0.07783850661523049</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1277146097686747</v>
+      </c>
+      <c r="E75">
+        <v>0.08118036535720849</v>
+      </c>
+      <c r="F75">
+        <v>-0.02751095136087938</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1176595260937692</v>
+        <v>0.1265668256624272</v>
       </c>
       <c r="C76">
-        <v>-0.1081386379027137</v>
+        <v>0.1080335142368475</v>
       </c>
       <c r="D76">
-        <v>-0.05252823535201429</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06071066449694254</v>
+      </c>
+      <c r="E76">
+        <v>0.06893797340782386</v>
+      </c>
+      <c r="F76">
+        <v>-0.06946397376920727</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07452072269050546</v>
+        <v>0.06015967428639218</v>
       </c>
       <c r="C77">
-        <v>-0.0588371925385312</v>
+        <v>0.06728361111286452</v>
       </c>
       <c r="D77">
-        <v>0.045638097758102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0651269505557017</v>
+      </c>
+      <c r="E77">
+        <v>0.06362161581402541</v>
+      </c>
+      <c r="F77">
+        <v>-0.1218277498603063</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04290243408357236</v>
+        <v>0.03936042690617748</v>
       </c>
       <c r="C78">
-        <v>-0.0434518921584405</v>
+        <v>0.05229515627557769</v>
       </c>
       <c r="D78">
-        <v>0.01509042867521337</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07174864479581136</v>
+      </c>
+      <c r="E78">
+        <v>0.01381486457436694</v>
+      </c>
+      <c r="F78">
+        <v>-0.09542672365239004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01607417650682301</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03255969723771115</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05431821526339693</v>
+      </c>
+      <c r="E79">
+        <v>0.0361445404037137</v>
+      </c>
+      <c r="F79">
+        <v>-0.02431825518107969</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04854371497797015</v>
+        <v>0.03444475503209188</v>
       </c>
       <c r="C80">
-        <v>-0.05230988851656167</v>
+        <v>0.05021784699253297</v>
       </c>
       <c r="D80">
-        <v>0.03784424172538225</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04828571785597553</v>
+      </c>
+      <c r="E80">
+        <v>0.01112096127612756</v>
+      </c>
+      <c r="F80">
+        <v>-0.03448594033145874</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1388956038763856</v>
+        <v>0.1395119141642384</v>
       </c>
       <c r="C81">
-        <v>-0.08204125136387545</v>
+        <v>0.09970156277098734</v>
       </c>
       <c r="D81">
-        <v>-0.03747284883822111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09082384751627895</v>
+      </c>
+      <c r="E81">
+        <v>0.08010606331641509</v>
+      </c>
+      <c r="F81">
+        <v>-0.0310541702596231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.07089446352783051</v>
+        <v>0.1905747417000725</v>
       </c>
       <c r="C82">
-        <v>-0.04737406514856644</v>
+        <v>0.1402944620190092</v>
       </c>
       <c r="D82">
-        <v>-0.02826913585573397</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2242908273423267</v>
+      </c>
+      <c r="E82">
+        <v>0.01014543774859366</v>
+      </c>
+      <c r="F82">
+        <v>-0.08021835376456232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02605354811974615</v>
+        <v>0.0262552629049916</v>
       </c>
       <c r="C83">
-        <v>-0.02102223018018838</v>
+        <v>0.03777485709782299</v>
       </c>
       <c r="D83">
-        <v>0.01630297647911624</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03330696182428105</v>
+      </c>
+      <c r="E83">
+        <v>0.007261781979002116</v>
+      </c>
+      <c r="F83">
+        <v>-0.05270199740109016</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2362067206528558</v>
+        <v>0.2050341920502752</v>
       </c>
       <c r="C85">
-        <v>-0.1193453128434574</v>
+        <v>0.1281399411193432</v>
       </c>
       <c r="D85">
-        <v>-0.1473766753532562</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1068670674349391</v>
+      </c>
+      <c r="E85">
+        <v>0.004401699462627222</v>
+      </c>
+      <c r="F85">
+        <v>0.01802160198885368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.0110114777939432</v>
+        <v>0.01165013254098009</v>
       </c>
       <c r="C86">
-        <v>-0.02405787150846898</v>
+        <v>0.03165374395835448</v>
       </c>
       <c r="D86">
-        <v>0.03985387433617479</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07682998667702919</v>
+      </c>
+      <c r="E86">
+        <v>0.04506942157837447</v>
+      </c>
+      <c r="F86">
+        <v>-0.1465946045545325</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01463303835388631</v>
+        <v>0.01942393052379772</v>
       </c>
       <c r="C87">
-        <v>-0.02363739443584353</v>
+        <v>0.01775670477675239</v>
       </c>
       <c r="D87">
-        <v>0.08055138211017776</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09126013203716833</v>
+      </c>
+      <c r="E87">
+        <v>0.08178676723026108</v>
+      </c>
+      <c r="F87">
+        <v>-0.09828200519201716</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1030773326740126</v>
+        <v>0.08830750948803455</v>
       </c>
       <c r="C88">
-        <v>-0.07077425797547135</v>
+        <v>0.06361508967063009</v>
       </c>
       <c r="D88">
-        <v>-0.01196634539212415</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01296099582329982</v>
+      </c>
+      <c r="E88">
+        <v>0.02949216673985784</v>
+      </c>
+      <c r="F88">
+        <v>-0.0734017388738059</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1905674221810395</v>
+        <v>0.2286405561111193</v>
       </c>
       <c r="C89">
-        <v>0.3758888858354129</v>
+        <v>-0.3830953771703521</v>
       </c>
       <c r="D89">
-        <v>-0.03290414369162526</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.019384909280492</v>
+      </c>
+      <c r="E89">
+        <v>0.03032827256498935</v>
+      </c>
+      <c r="F89">
+        <v>-0.09871153353758869</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.17687371119822</v>
+        <v>0.2078705434757982</v>
       </c>
       <c r="C90">
-        <v>0.3474584301751054</v>
+        <v>-0.3162701021318131</v>
       </c>
       <c r="D90">
-        <v>0.006460849894007238</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01595599065148272</v>
+      </c>
+      <c r="E90">
+        <v>0.06076298355756009</v>
+      </c>
+      <c r="F90">
+        <v>-0.05524915915091648</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.2009269126535101</v>
+        <v>0.1889592750005933</v>
       </c>
       <c r="C91">
-        <v>-0.1168569215605561</v>
+        <v>0.1417411925421591</v>
       </c>
       <c r="D91">
-        <v>-0.06722070961592937</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1033844000288499</v>
+      </c>
+      <c r="E91">
+        <v>0.07285198869217421</v>
+      </c>
+      <c r="F91">
+        <v>-0.04689598261980371</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1695479361180719</v>
+        <v>0.1872466929085545</v>
       </c>
       <c r="C92">
-        <v>0.2800549047672308</v>
+        <v>-0.2740136001582416</v>
       </c>
       <c r="D92">
-        <v>-0.01657564820506419</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.009375276561037432</v>
+      </c>
+      <c r="E92">
+        <v>0.06846231586270762</v>
+      </c>
+      <c r="F92">
+        <v>-0.07379172264628461</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1983591699140775</v>
+        <v>0.2293450696179147</v>
       </c>
       <c r="C93">
-        <v>0.3425663083052133</v>
+        <v>-0.3145647979487033</v>
       </c>
       <c r="D93">
-        <v>0.007492911055058131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.003097879145647032</v>
+      </c>
+      <c r="E93">
+        <v>0.04827463229003353</v>
+      </c>
+      <c r="F93">
+        <v>-0.0421273889748504</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.2877491018674864</v>
+        <v>0.3393324435048923</v>
       </c>
       <c r="C94">
-        <v>-0.155005129335943</v>
+        <v>0.200600418963827</v>
       </c>
       <c r="D94">
-        <v>-0.1237253129103112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4699166210783655</v>
+      </c>
+      <c r="E94">
+        <v>0.171472581078319</v>
+      </c>
+      <c r="F94">
+        <v>0.432396284765346</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09489313853670675</v>
+        <v>0.08178704801076182</v>
       </c>
       <c r="C95">
-        <v>-0.06739232151923795</v>
+        <v>0.07687310894153737</v>
       </c>
       <c r="D95">
-        <v>0.04443660014259555</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1506212130056996</v>
+      </c>
+      <c r="E95">
+        <v>-0.1339783824008491</v>
+      </c>
+      <c r="F95">
+        <v>-0.2140826891146115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2058755484545866</v>
+        <v>0.1880043997416673</v>
       </c>
       <c r="C98">
-        <v>-0.02269941045366296</v>
+        <v>0.04296320978646324</v>
       </c>
       <c r="D98">
-        <v>0.03974131653133712</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1759427247038787</v>
+      </c>
+      <c r="E98">
+        <v>-0.1547266175357433</v>
+      </c>
+      <c r="F98">
+        <v>0.04616291243474144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.0121926440332114</v>
+        <v>0.005946024459403582</v>
       </c>
       <c r="C101">
-        <v>-0.02413910133912497</v>
+        <v>0.02456071570012093</v>
       </c>
       <c r="D101">
-        <v>-0.01221656245054966</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02024988511712776</v>
+      </c>
+      <c r="E101">
+        <v>0.0277535414675567</v>
+      </c>
+      <c r="F101">
+        <v>-0.08623909478437131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1187995820788445</v>
+        <v>0.1214385852121639</v>
       </c>
       <c r="C102">
-        <v>-0.07633465426576475</v>
+        <v>0.1024412844368397</v>
       </c>
       <c r="D102">
-        <v>-0.04931163777925819</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05068740620475084</v>
+      </c>
+      <c r="E102">
+        <v>-0.01064218179930194</v>
+      </c>
+      <c r="F102">
+        <v>-0.04077768074738914</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
